--- a/pred_ohlcv/54_21/2019-10-27 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 PPT ohlcv.xlsx
@@ -3252,7 +3252,7 @@
         <v>-33174.87873773</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-36503.06943773</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-35342.25653773001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-40040.95433773</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-41148.22093773</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-44228.01823773</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-41999.07743773</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-41026.85213773001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-41112.12893773001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-41029.40633773</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-42317.23249520001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-42747.26549520001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-43667.8423952</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-43452.8423952</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-43471.8423952</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-43476.8423952</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-31436.0205952</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-33313.4477952</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-70338.21139520002</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-70323.12509520003</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-70479.76839520002</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-70473.63199520002</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-73999.96159520002</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-75715.96159520002</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-75896.60949520001</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-76306.24959520002</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-76062.24959520002</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-74737.96279520002</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-74320.87189520002</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-74320.87189520002</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-73039.01839520002</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-71920.01849520003</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-70293.01849520003</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-70196.92949520002</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-70196.92949520002</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-68448.14499520003</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-60270.30510197004</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-65564.45440197004</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-65562.89270197003</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-65577.89270197003</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-68563.32395049004</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-72377.56495049004</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-72338.59205049004</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-73429.59195049004</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-72643.45245049003</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-74305.07915049003</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-74305.07915049003</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-73223.37055049003</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-71976.10735049003</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-71888.77405049003</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-75503.27935049003</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-61366.58215049003</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-64997.10670197003</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-60190.80210197002</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-26369.16914470003</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-17966.15244062003</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3300.142373050026</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-10280.73127305003</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-10379.30297305003</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-14888.10207305003</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-10206.97797305003</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-10206.97797305003</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-10141.41837305003</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3080.147173050026</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3080.147173050026</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>814.9384269499733</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>10604.08492694997</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>10604.08492694997</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1585.971826949974</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2996.394873050026</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1563.159826949974</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2831.758291279973</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>5264.462791279973</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>5264.462791279973</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>5259.653991279974</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2543.520491279974</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2251.903864259973</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2745.865564259973</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>17337.09106425997</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>14941.07587276997</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>14941.07587276997</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>9676.424172769974</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>11659.81257276997</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>11659.81257276997</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>5334.792872769974</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-86807.22108925002</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-86809.22108925002</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-86043.22278925001</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-85031.65318925001</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-85131.65318925001</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-85149.65318925001</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-85200.31972721001</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-141528.3043257</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-141528.3043257</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-155261.1868257</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-155676.7054257</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-155675.7054257</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-156697.3089257</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-160243.4466257</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-157133.2451257</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-157490.9109257</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-162307.6591257</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-160307.7833257</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-162416.7940257</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-164714.1277257</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-164000.6070257</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-165509.5426257</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-168239.5215257</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-165293.9384257</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-165513.6886257</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-165189.0087257001</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-164537.9875257001</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-148683.5619257001</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-147531.7386257001</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-148716.8086257001</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-137941.0706257001</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-137931.0706257001</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-138591.7475257001</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-138246.7475257001</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-131196.6553575601</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-134447.9539575601</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-134447.9539575601</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-134146.1913575601</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-135598.7024575601</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-130879.0267575601</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-124638.2638575601</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-111438.2641439301</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-113090.2020439301</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-113748.9102439301</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-113258.1028439301</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-114515.2670439301</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-120955.9094439301</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-122911.4612439301</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-122821.3817439301</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-88224.28624393008</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-89239.14944393009</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 PPT ohlcv.xlsx
@@ -3252,7 +3252,7 @@
         <v>-33174.87873773</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-36503.06943773</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-35342.25653773001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-40040.95433773</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-41148.22093773</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-44228.01823773</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-41999.07743773</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-41026.85213773001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-41112.12893773001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-41029.40633773</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-42317.23249520001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-42747.26549520001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-43667.8423952</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-43452.8423952</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-43471.8423952</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-43476.8423952</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-31436.0205952</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-33313.4477952</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-60270.30510197004</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-65564.45440197004</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-65562.89270197003</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-65577.89270197003</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-68563.32395049004</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-72377.56495049004</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-72338.59205049004</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-73429.59195049004</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-72643.45245049003</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-74305.07915049003</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-74305.07915049003</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-73223.37055049003</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-71976.10735049003</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-71888.77405049003</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-75503.27935049003</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-61366.58215049003</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-64997.10670197003</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-60190.80210197002</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-26369.16914470003</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-17966.15244062003</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3300.142373050026</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-10280.73127305003</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-10379.30297305003</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-14888.10207305003</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-10206.97797305003</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-10206.97797305003</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-10141.41837305003</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3080.147173050026</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3080.147173050026</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>814.9384269499733</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>10604.08492694997</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>10604.08492694997</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1585.971826949974</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2996.394873050026</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1563.159826949974</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2831.758291279973</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>5264.462791279973</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>5264.462791279973</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>5259.653991279974</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2543.520491279974</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2251.903864259973</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2745.865564259973</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>17337.09106425997</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>14941.07587276997</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>14941.07587276997</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>9676.424172769974</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>11659.81257276997</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-86807.22108925002</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-86809.22108925002</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-86043.22278925001</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-85031.65318925001</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-85131.65318925001</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-85149.65318925001</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-85200.31972721001</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-141528.3043257</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-141528.3043257</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-155261.1868257</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-155676.7054257</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-155675.7054257</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-156697.3089257</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-160243.4466257</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-157133.2451257</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-157490.9109257</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-157677.4109257</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-160307.7833257</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-162416.7940257</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-162416.7940257</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-162753.7072257</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-164714.1277257</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-164000.6070257</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-164000.6070257</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-163375.8719257</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-164583.9761257001</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-164583.9761257001</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-165509.5426257</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-168239.5215257</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-165293.9384257</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-165513.6886257</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-165189.0087257001</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-164537.9875257001</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-143708.4353257001</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-150379.3198257001</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-148683.5619257001</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-147531.7386257001</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-150081.4585257001</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-149482.4586257001</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-148716.8086257001</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-146141.4439257001</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-143169.6350257001</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-137941.0706257001</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-137931.0706257001</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-138591.7475257001</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-138246.7475257001</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-131196.6553575601</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-134447.9539575601</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-134447.9539575601</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-134146.1913575601</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-135598.7024575601</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-130879.0267575601</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-124638.2638575601</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-111438.2641439301</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-113090.2020439301</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-113748.9102439301</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-113258.1028439301</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-114515.2670439301</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-120955.9094439301</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-122911.4612439301</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-122821.3817439301</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-88224.28624393008</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-89239.14944393009</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
